--- a/teaching/math196_spring_2025/grade_sheet.xlsx
+++ b/teaching/math196_spring_2025/grade_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaming\Desktop\theorems\teaching\math196_spring_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73956564-E454-4AAA-9D68-01287D764FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FE36F8-3FB6-4BE6-8CF6-1BD52668E161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{E2BD3384-0D17-41AB-A7EC-CD70FD2168E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E2BD3384-0D17-41AB-A7EC-CD70FD2168E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,97 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>Moses Agustin</t>
-  </si>
-  <si>
-    <t>Gulce Demirel</t>
-  </si>
-  <si>
-    <t>James Farrell</t>
-  </si>
-  <si>
-    <t>Ayla Hasan</t>
-  </si>
-  <si>
-    <t>Micayla Hatcher</t>
-  </si>
-  <si>
-    <t>Gabriel Hatto</t>
-  </si>
-  <si>
-    <t>Jacky Jiang</t>
-  </si>
-  <si>
-    <t>Jeff Kao</t>
-  </si>
-  <si>
-    <t>Jonathan Lai</t>
-  </si>
-  <si>
-    <t>Madison Lee</t>
-  </si>
-  <si>
-    <t>Payton Levinthal</t>
-  </si>
-  <si>
-    <t>Joyce Li</t>
-  </si>
-  <si>
-    <t>Shinyi Li</t>
-  </si>
-  <si>
-    <t>Dario Marino</t>
-  </si>
-  <si>
-    <t>Avital Mintz</t>
-  </si>
-  <si>
-    <t>Nina Ng</t>
-  </si>
-  <si>
-    <t>Zelin Pan</t>
-  </si>
-  <si>
-    <t>Joey Rinchiuso</t>
-  </si>
-  <si>
-    <t>Sara Romai</t>
-  </si>
-  <si>
-    <t>Rhea Sadagopan</t>
-  </si>
-  <si>
-    <t>Lefteris Siganos</t>
-  </si>
-  <si>
-    <t>Jean Sung</t>
-  </si>
-  <si>
-    <t>Anushka Vasudev</t>
-  </si>
-  <si>
-    <t>Zoe Wang</t>
-  </si>
-  <si>
-    <t>Shira Waxman</t>
-  </si>
-  <si>
-    <t>June Yeo</t>
-  </si>
-  <si>
-    <t>Alex Zhang</t>
-  </si>
-  <si>
-    <t>James Zhang</t>
-  </si>
-  <si>
-    <t>Douglas Zuo</t>
-  </si>
-  <si>
-    <t>Shuya van Dooieweert</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Project 1</t>
   </si>
@@ -556,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8C6F5E-8B60-4477-A093-D69A7C2CC421}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,30 +480,27 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>95.1</v>
       </c>
@@ -616,10 +523,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>99.65</v>
       </c>
@@ -638,14 +542,11 @@
         <v>99.65</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H32" si="2">VLOOKUP(G3,A$35:B$44,2,TRUE)</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
+        <f t="shared" ref="H3:H31" si="2">VLOOKUP(G3,A$35:B$44,2,TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>96.42</v>
       </c>
@@ -668,10 +569,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>98.05</v>
       </c>
@@ -694,10 +592,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>99.12</v>
       </c>
@@ -720,10 +615,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>81.75</v>
       </c>
@@ -746,10 +638,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>99.62</v>
       </c>
@@ -772,10 +661,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>93.55</v>
       </c>
@@ -798,10 +684,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>71.45</v>
       </c>
@@ -824,10 +707,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>97.75</v>
       </c>
@@ -850,10 +730,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>92.89</v>
       </c>
@@ -876,10 +753,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>99.35</v>
       </c>
@@ -902,10 +776,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>97.14</v>
       </c>
@@ -928,10 +799,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>70.25</v>
       </c>
@@ -954,10 +822,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>97.35</v>
       </c>
@@ -980,10 +845,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>88.68</v>
       </c>
@@ -1006,10 +868,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>93.55</v>
       </c>
@@ -1032,10 +891,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>96.78</v>
       </c>
@@ -1058,10 +914,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>92.45</v>
       </c>
@@ -1084,10 +937,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>98.4</v>
       </c>
@@ -1110,10 +960,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>91.83</v>
       </c>
@@ -1136,10 +983,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>87.95</v>
       </c>
@@ -1162,10 +1006,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>99.7</v>
       </c>
@@ -1188,10 +1029,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>87.95</v>
       </c>
@@ -1214,10 +1052,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>97.55</v>
       </c>
@@ -1240,10 +1075,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>97.18</v>
       </c>
@@ -1266,10 +1098,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>90.6</v>
       </c>
@@ -1292,10 +1121,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>90.15</v>
       </c>
@@ -1318,10 +1144,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>91.65</v>
       </c>
@@ -1344,10 +1167,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>85.5</v>
       </c>
@@ -1372,13 +1192,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1386,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <f>COUNTIF(H:H,B35)</f>
@@ -1398,7 +1218,7 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:D44" si="3">COUNTIF(H:H,B36)</f>
@@ -1410,7 +1230,7 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
@@ -1422,7 +1242,7 @@
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
@@ -1434,7 +1254,7 @@
         <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
@@ -1446,7 +1266,7 @@
         <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
@@ -1458,7 +1278,7 @@
         <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
@@ -1470,7 +1290,7 @@
         <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D42">
         <f t="shared" si="3"/>
@@ -1482,7 +1302,7 @@
         <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D43">
         <f t="shared" si="3"/>
@@ -1494,7 +1314,7 @@
         <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <f t="shared" si="3"/>
